--- a/src/analysis_examples/circadb/results_jtk/cosinor_10498273_tm4sf1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10498273_tm4sf1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2469344801728397, 0.34221949491480586]</t>
+          <t>[0.24784573138017457, 0.341308243707471]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.015521083365002e-11</v>
+        <v>1.402589155929945e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.015521083365002e-11</v>
+        <v>1.402589155929945e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-1.358526552903695</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5662064720383226, 0.6223047447933614]</t>
+          <t>[0.566205381713722, 0.622305835117962]</t>
         </is>
       </c>
       <c r="U2" t="n">
